--- a/medicine/Sexualité et sexologie/La_Belle_de_Gaza/La_Belle_de_Gaza.xlsx
+++ b/medicine/Sexualité et sexologie/La_Belle_de_Gaza/La_Belle_de_Gaza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Belle de Gaza est un film documentaire français, réalisé par Yolande Zauberman. Il évoque la communauté queer israélienne. 
 Le documentaire La Belle de Gaza est présenté au Festival de Cannes 2024 en séance spéciale.
@@ -512,10 +524,12 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Belle de Gaza est un film documentaire sur la transidentité en Israël. Une jeune fille, menacée de mort à cause de sa transidentité, aurait fui la bande de Gaza pour rejoindre, à pied, Tel-Aviv. Cette légende urbaine est à l'origine d’une présentation de la communauté queer israélienne[1].
-Filmé dans la rue Hatnufa à Tel-Aviv, le documentaire La Belle de Gaza entremêle les vies souvent tragiques de plusieurs femmes transgenres, dont certaines sont des prostituées. Ainsi Israela, venue d'un milieu juif orthodoxe, explique ses trois ans de mariage avec un rabbin qui ne savait pas qu'elle était transexuelle. Quand elle décide de le quitter, elle lui permet de voir ses papiers, il lui accorde immédiatement l'acte de divorce. Danielle venue des territoires palestiniens, a été kidnappée par des hommes de son ancien village pour la punir. Elle a survécu mais sa mère lui a dit : « Je regrette qu'ils ne t'aient pas tuée ». À l'inverse, l'Israélienne Talleen Abu Hanna Miss Trans Israel (en) en 2016, se sent acceptée et exprime sa gratitude à l'égard de son pays[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Belle de Gaza est un film documentaire sur la transidentité en Israël. Une jeune fille, menacée de mort à cause de sa transidentité, aurait fui la bande de Gaza pour rejoindre, à pied, Tel-Aviv. Cette légende urbaine est à l'origine d’une présentation de la communauté queer israélienne.
+Filmé dans la rue Hatnufa à Tel-Aviv, le documentaire La Belle de Gaza entremêle les vies souvent tragiques de plusieurs femmes transgenres, dont certaines sont des prostituées. Ainsi Israela, venue d'un milieu juif orthodoxe, explique ses trois ans de mariage avec un rabbin qui ne savait pas qu'elle était transexuelle. Quand elle décide de le quitter, elle lui permet de voir ses papiers, il lui accorde immédiatement l'acte de divorce. Danielle venue des territoires palestiniens, a été kidnappée par des hommes de son ancien village pour la punir. Elle a survécu mais sa mère lui a dit : « Je regrette qu'ils ne t'aient pas tuée ». À l'inverse, l'Israélienne Talleen Abu Hanna Miss Trans Israel (en) en 2016, se sent acceptée et exprime sa gratitude à l'égard de son pays.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Réalisatrice : Yolande Zauberman
 Scénario : Yolande Zauberman
@@ -582,9 +598,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Talleen Abu Hanna [3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Talleen Abu Hanna .
 Israela
 Nadine
 Danielle
@@ -616,9 +634,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Festival de Cannes 2024 :  Sélection officielle – Séance spéciale. Il concourt pour l'Œil d'or et la Queer Palm[4].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Festival de Cannes 2024 :  Sélection officielle – Séance spéciale. Il concourt pour l'Œil d'or et la Queer Palm.</t>
         </is>
       </c>
     </row>
